--- a/non-print-parts/机器人配件采购清单v3.0.xlsx
+++ b/non-print-parts/机器人配件采购清单v3.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github-printx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\github-printx\non-print-parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{618CC492-0FC8-4C09-A6BA-EBC987711D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464C06F9-03B1-43E9-8E17-090F53350D23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5445" yWindow="605" windowWidth="23234" windowHeight="12319" xr2:uid="{69CCCF17-468F-4DA3-9686-F73B5F42E543}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="122">
   <si>
     <t>型材</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -576,6 +576,14 @@
   </si>
   <si>
     <t>打孔情况查看另一文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m5 10mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>m5 15mm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -707,18 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -732,6 +728,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B5350EB-74CA-4FEA-B102-277F71B01079}">
-  <dimension ref="B1:H62"/>
+  <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1065,23 +1073,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1098,11 +1106,11 @@
       <c r="E2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6">
+      <c r="G2" s="12"/>
+      <c r="H2" s="11">
         <v>40</v>
       </c>
     </row>
@@ -1117,9 +1125,9 @@
       <c r="E3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
@@ -1132,13 +1140,13 @@
       <c r="E4" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
@@ -1147,9 +1155,9 @@
       <c r="E5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
@@ -1174,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2">
@@ -1194,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="2">
@@ -1221,14 +1229,14 @@
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="2">
@@ -1248,7 +1256,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="10"/>
       <c r="G11" s="2">
         <v>21</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="10"/>
       <c r="G12" s="2">
         <v>15</v>
       </c>
@@ -1284,7 +1292,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="10"/>
       <c r="G13" s="2">
         <v>14</v>
       </c>
@@ -1302,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="10"/>
       <c r="G14" s="2">
         <v>16</v>
       </c>
@@ -1336,7 +1344,7 @@
       <c r="E16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="2">
@@ -1358,7 +1366,7 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="2">
@@ -1380,7 +1388,7 @@
       <c r="E18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="2">
@@ -1402,7 +1410,7 @@
       <c r="E19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="2">
@@ -1424,7 +1432,7 @@
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="G20" s="2">
@@ -1444,7 +1452,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="5" t="s">
         <v>47</v>
       </c>
       <c r="G21" s="2">
@@ -1464,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G22" s="2">
@@ -1484,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G23" s="2">
@@ -1506,7 +1514,7 @@
       <c r="E24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="5" t="s">
         <v>58</v>
       </c>
       <c r="G24" s="2"/>
@@ -1526,7 +1534,7 @@
       <c r="E25" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="G25" s="2">
@@ -1546,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G26" s="2">
@@ -1568,7 +1576,7 @@
       <c r="E27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G27" s="2">
@@ -1590,7 +1598,7 @@
       <c r="E28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="2">
@@ -1612,7 +1620,7 @@
       <c r="E29" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G29" s="2">
@@ -1634,7 +1642,7 @@
       <c r="E30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="5" t="s">
         <v>83</v>
       </c>
       <c r="G30" s="2">
@@ -1656,7 +1664,7 @@
       <c r="E31" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="5" t="s">
         <v>96</v>
       </c>
       <c r="G31" s="2">
@@ -1678,7 +1686,7 @@
       <c r="E32" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="5" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="2">
@@ -1700,7 +1708,7 @@
       <c r="E33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="5" t="s">
         <v>100</v>
       </c>
       <c r="G33" s="2">
@@ -1722,7 +1730,7 @@
       <c r="E34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G34" s="2">
@@ -1758,7 +1766,7 @@
       <c r="E36" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G36" s="2"/>
@@ -1778,7 +1786,7 @@
       <c r="E37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G37" s="2">
@@ -1814,7 +1822,7 @@
       <c r="E39" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="5" t="s">
         <v>76</v>
       </c>
       <c r="G39" s="2">
@@ -1834,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="3"/>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="5" t="s">
         <v>78</v>
       </c>
       <c r="G40" s="2">
@@ -1854,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="E41" s="3"/>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="5" t="s">
         <v>81</v>
       </c>
       <c r="G41" s="2">
@@ -1874,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="E42" s="3"/>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G42" s="2">
@@ -1894,7 +1902,7 @@
         <v>4</v>
       </c>
       <c r="E43" s="3"/>
-      <c r="F43" s="9" t="s">
+      <c r="F43" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G43" s="2">
@@ -1916,7 +1924,7 @@
       <c r="E44" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="F44" s="5" t="s">
         <v>89</v>
       </c>
       <c r="G44" s="2">
@@ -1938,7 +1946,7 @@
       <c r="E45" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G45" s="2">
@@ -1954,7 +1962,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="9"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
@@ -2080,6 +2088,22 @@
       </c>
       <c r="D62">
         <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
